--- a/techniqo/data_new_ticker/ADANIGAS.xlsx
+++ b/techniqo/data_new_ticker/ADANIGAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16346,6 +16346,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>205.75</v>
+      </c>
+      <c r="C457" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="D457" t="n">
+        <v>205</v>
+      </c>
+      <c r="E457" t="n">
+        <v>207.15</v>
+      </c>
+      <c r="F457" t="n">
+        <v>2027612</v>
+      </c>
+      <c r="G457" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="C458" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="D458" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="E458" t="n">
+        <v>204.75</v>
+      </c>
+      <c r="F458" t="n">
+        <v>2326263</v>
+      </c>
+      <c r="G458" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ADANIGAS.xlsx
+++ b/techniqo/data_new_ticker/ADANIGAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16396,6 +16396,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>202.55</v>
+      </c>
+      <c r="C459" t="n">
+        <v>204.75</v>
+      </c>
+      <c r="D459" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="E459" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="F459" t="n">
+        <v>1299089</v>
+      </c>
+      <c r="G459" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="C460" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="D460" t="n">
+        <v>192</v>
+      </c>
+      <c r="E460" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="F460" t="n">
+        <v>4279285</v>
+      </c>
+      <c r="G460" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
